--- a/biology/Zoologie/Gonatodes_concinnatus/Gonatodes_concinnatus.xlsx
+++ b/biology/Zoologie/Gonatodes_concinnatus/Gonatodes_concinnatus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Gonatodes concinnatus est une espèce de geckos de la famille des Sphaerodactylidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Gonatodes concinnatus est une espèce de geckos de la famille des Sphaerodactylidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition et habitat</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est présente dans l'ouest de l'Équateur et au nord du Pérou. Elle vit dans la forêt tropicale humide de basse altitude[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est présente dans l'ouest de l'Équateur et au nord du Pérou. Elle vit dans la forêt tropicale humide de basse altitude.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Alimentation</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est un insectivore qui consomme la plupart des arthropodes de taille adaptée.
 </t>
@@ -573,7 +589,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>O'Shaughnessy, 1881 : An account of the collection of lizards made by Mr. Buckley in Ecuador, and now in the British Museum, with descritions of the new species. Proceedings of the Zoological Society of London, vol. 1881, p. 227-245 (texte intégral).</t>
         </is>
